--- a/10_Factors/Finish_alpha.xlsx
+++ b/10_Factors/Finish_alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>Formula</t>
   </si>
@@ -46,58 +46,214 @@
     <t>type</t>
   </si>
   <si>
-    <t>MA_5</t>
-  </si>
-  <si>
-    <t>alpha165</t>
-  </si>
-  <si>
-    <t>alpha34</t>
-  </si>
-  <si>
-    <t>-Correlation(Delta(Log(volume),{}),(close-open)/open,{})</t>
-  </si>
-  <si>
-    <t>'-(Ts_Max(Ts_Sum(close-Ts_Mean(close,48),{}),{})-Ts_Min(Ts_Sum(close-Ts_Mean(close,48),{}),{})/StdDev(close,48))'.format(5,5,5,5)</t>
-  </si>
-  <si>
-    <t>Ts_Mean(close,12)/close</t>
-  </si>
-  <si>
-    <t>{'传媒': 0.05, '国防军工': 0.09, '建筑材料': 0.08, '电气设备': 0.05, '纺织服装': 0.06}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.07, '休闲服务': 0.05, '传媒': 0.06, '农林牧渔': 0.06, '商业贸易': 0.05, '建筑装饰': 0.1, '房地产': 0.07, '有色金属': 0.08, '机械设备': 0.05, '电子': 0.05, '电气设备': 0.05, '纺织服装': 0.08, '综合': 0.05, '通信': 0.07, '银行': 0.1, '非银金融': 0.05}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.05, '传媒': 0.07, '商业贸易': 0.05, '国防军工': 0.1, '建筑材料': 0.09, '房地产': 0.05, '电气设备': 0.06, '纺织服装': 0.08, '计算机': 0.05, '钢铁': 0.07}</t>
+    <t>BBI_CCI_pb</t>
+  </si>
+  <si>
+    <t>EBIT_EV</t>
+  </si>
+  <si>
+    <t>EV_pe_pb</t>
+  </si>
+  <si>
+    <t>MA5_30</t>
+  </si>
+  <si>
+    <t>Max_Min_250</t>
+  </si>
+  <si>
+    <t>Mean5_Std20</t>
+  </si>
+  <si>
+    <t>close_rank</t>
+  </si>
+  <si>
+    <t>longterm_liab</t>
+  </si>
+  <si>
+    <t>pe_40_close</t>
+  </si>
+  <si>
+    <t>roe_profitgrowth_pe</t>
+  </si>
+  <si>
+    <t>volume_capital_stk</t>
+  </si>
+  <si>
+    <t>vr_vol24</t>
+  </si>
+  <si>
+    <t>(-Log(BBI_after)-Log(CCI))*pb</t>
+  </si>
+  <si>
+    <t>(tot_profit+less_int_exp-int_income)/(capital_stk*Ts_Mean(close,60)+total_liab-end_bal_cash)</t>
+  </si>
+  <si>
+    <t>Log((capital_stk*Ts_Mean(close,60)+total_liab-end_bal_cash))/(pb*pe)</t>
+  </si>
+  <si>
+    <t>-Ts_Mean(close,5)/Ts_Mean(close,30)</t>
+  </si>
+  <si>
+    <t>close/Ts_Max(close,250)-close/Ts_Min(close,250)</t>
+  </si>
+  <si>
+    <t>Log(Ts_Mean(close,5)/StdDev(volume,20))</t>
+  </si>
+  <si>
+    <t>If(close/Delay(close,10)-1&gt;0.01 ,-Ts_Rank(close,60),0)</t>
+  </si>
+  <si>
+    <t>If((tot_non_cur_liab/(tot_assets-total_liab)&lt;2.5) &amp;&amp; (tot_non_cur_liab/(tot_cur_assets-tot_cur_liab)&lt;1.1),-pe*pb,0)</t>
+  </si>
+  <si>
+    <t>If((pe&lt;40) &amp;&amp; (close/Delay(close,10)-1&lt;0.1),close/Delay(close,10),0)</t>
+  </si>
+  <si>
+    <t>Log(TTM(roe)*TTM(net_profit)/Delay(TTM(net_profit),4)/(TTM(pe)*TTM(pb)))</t>
+  </si>
+  <si>
+    <t>If((pb&lt;3) &amp;&amp; (pe&lt;30),Ts_Mean(volume,10)/(capital_stk*Ts_Mean(close,10)),0)</t>
+  </si>
+  <si>
+    <t>-vr*Ts_Mean(volume,24)/capital_stk</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.11, '传媒': 0.08, '公用事业': 0.06, '化工': 0.07, '医药生物': 0.05, '商业贸易': 0.12, '国防军工': 0.16, '建筑材料': 0.1, '建筑装饰': 0.18, '房地产': 0.1, '有色金属': 0.08, '机械设备': 0.12, '汽车': 0.05, '电子': 0.09, '电气设备': 0.1, '纺织服装': 0.08, '综合': 0.08, '轻工制造': 0.08, '通信': 0.12, '采掘': 0.12, '钢铁': 0.12, '非银金融': 0.06}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '休闲服务': 0.11, '农林牧渔': 0.07, '家用电器': 0.13, '建筑材料': 0.05, '汽车': 0.08, '电气设备': 0.07, '通信': 0.05, '采掘': 0.06, '钢铁': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.07, '休闲服务': 0.12, '传媒': 0.05, '农林牧渔': 0.05, '化工': 0.05, '商业贸易': 0.08, '家用电器': 0.1, '建筑材料': 0.07, '建筑装饰': 0.14, '房地产': 0.09, '机械设备': 0.05, '汽车': 0.08, '电子': 0.06, '电气设备': 0.07, '纺织服装': 0.06, '轻工制造': 0.15, '通信': 0.12, '采掘': 0.07, '银行': 0.1, '非银金融': 0.09}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.07, '传媒': 0.09, '公用事业': 0.05, '化工': 0.07, '商业贸易': 0.05, '国防军工': 0.06, '建筑材料': 0.09, '建筑装饰': 0.06, '房地产': 0.08, '机械设备': 0.05, '汽车': 0.05, '电气设备': 0.09, '纺织服装': 0.11, '计算机': 0.06, '轻工制造': 0.06, '通信': 0.06, '钢铁': 0.08, '非银金融': 0.07}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.12, '休闲服务': 0.1, '传媒': 0.07, '公用事业': 0.09, '农林牧渔': 0.09, '化工': 0.08, '商业贸易': 0.1, '家用电器': 0.06, '建筑材料': 0.11, '建筑装饰': 0.11, '房地产': 0.12, '有色金属': 0.11, '机械设备': 0.13, '汽车': 0.09, '电子': 0.06, '电气设备': 0.05, '纺织服装': 0.07, '综合': 0.07, '计算机': 0.05, '轻工制造': 0.07, '通信': 0.07, '采掘': 0.09, '钢铁': 0.09, '非银金融': 0.11, '食品饮料': 0.06}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.06, '休闲服务': 0.06, '农林牧渔': 0.14, '医药生物': 0.05, '建筑材料': 0.11, '房地产': 0.06, '电气设备': 0.06, '综合': 0.05, '轻工制造': 0.06, '采掘': 0.05, '非银金融': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '传媒': 0.07, '化工': 0.06, '国防军工': 0.08, '建筑材料': 0.08, '建筑装饰': 0.06, '房地产': 0.05, '汽车': 0.05, '电气设备': 0.05, '纺织服装': 0.08, '轻工制造': 0.05, '钢铁': 0.11}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '休闲服务': 0.11, '商业贸易': 0.07, '家用电器': 0.07, '建筑装饰': 0.1, '房地产': 0.06, '汽车': 0.06, '通信': 0.09, '非银金融': 0.05}</t>
+  </si>
+  <si>
+    <t>{'休闲服务': 0.12, '家用电器': 0.07, '建筑装饰': 0.05, '房地产': 0.06, '机械设备': 0.05, '汽车': 0.05, '电子': 0.05, '轻工制造': 0.06, '通信': 0.08, '采掘': 0.06, '银行': 0.09}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.06, '休闲服务': 0.08, '家用电器': 0.08, '建筑材料': 0.07, '建筑装饰': 0.1, '房地产': 0.08, '汽车': 0.06, '纺织服装': 0.06, '轻工制造': 0.1, '通信': 0.07, '钢铁': 0.11}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '休闲服务': 0.15, '公用事业': 0.06, '商业贸易': 0.07, '家用电器': 0.1, '建筑装饰': 0.09, '汽车': 0.05, '纺织服装': 0.05, '轻工制造': 0.1, '通信': 0.09, '非银金融': 0.07}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.06, '传媒': 0.06, '农林牧渔': 0.11, '化工': 0.06, '医药生物': 0.09, '商业贸易': 0.09, '建筑材料': 0.08, '建筑装饰': 0.09, '房地产': 0.09, '机械设备': 0.05, '汽车': 0.07, '电子': 0.07, '电气设备': 0.08, '纺织服装': 0.09, '计算机': 0.09, '轻工制造': 0.1, '采掘': 0.09, '钢铁': 0.09, '非银金融': 0.05, '食品饮料': 0.08}</t>
   </si>
   <si>
     <t>sw1</t>
   </si>
   <si>
+    <t>['close', 'high', 'low', 'pb']</t>
+  </si>
+  <si>
+    <t>['tot_profit', 'less_int_exp', 'int_income', 'capital_stk', 'close', 'total_liab', 'end_bal_cash']</t>
+  </si>
+  <si>
+    <t>['capital_stk', 'close', 'total_liab', 'end_bal_cash', 'pb', 'pe']</t>
+  </si>
+  <si>
     <t>['close']</t>
   </si>
   <si>
-    <t>5天收盘价的均值</t>
-  </si>
-  <si>
-    <t>收盘价减48日收盘均价在5日内最大值-收盘价减48日收盘均价在5日内最小值除以48日收盘价标准差</t>
-  </si>
-  <si>
-    <t>12天收盘价均值与当天收盘价的比值</t>
+    <t>['close', 'volume']</t>
+  </si>
+  <si>
+    <t>['tot_non_cur_liab', 'tot_assets', 'total_liab', 'tot_cur_assets', 'tot_cur_liab', 'pb', 'pe']</t>
+  </si>
+  <si>
+    <t>['roe', 'net_profit', 'pb', 'pe']</t>
+  </si>
+  <si>
+    <t>['pb', 'pe', 'close', 'volume', 'capital_stk']</t>
+  </si>
+  <si>
+    <t>['close', 'volume', 'capital_stk']</t>
+  </si>
+  <si>
+    <t>-BBI的对数-CCI的对数，乘pb</t>
+  </si>
+  <si>
+    <t>EBIT除企业价值</t>
+  </si>
+  <si>
+    <t>企业价值的对数除以pb和pe</t>
+  </si>
+  <si>
+    <t>5日均线与30日均线的比率</t>
+  </si>
+  <si>
+    <t>收盘价/过去250日最高价-收盘价/过去250日最低价</t>
+  </si>
+  <si>
+    <t>(5日收盘价均值/20日成交量标准差)的对数</t>
+  </si>
+  <si>
+    <t>若10日收益率大于1%，则返回收盘价60日排名，否则返回0</t>
+  </si>
+  <si>
+    <t>若长期负债比率小于2.5且长期负债/流动负债小于1.1，则返回-pb*pb，否则返回0</t>
+  </si>
+  <si>
+    <t>若pe小于40，且10日内涨幅不超过10%，则返回10日内涨幅，否则返回0</t>
+  </si>
+  <si>
+    <t>(roe*净利润增长率/pe/pb)的对数</t>
+  </si>
+  <si>
+    <t>若pb小于3，且pe&lt;30，则返回10日平均成交量/10日平均总市值，否则返回0</t>
+  </si>
+  <si>
+    <t>24日VR成交量比率*24日换手率</t>
   </si>
   <si>
     <t>ZZ800</t>
   </si>
   <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[5, 5, 5, 5]</t>
-  </si>
-  <si>
-    <t>[12]</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>[5, 30]</t>
+  </si>
+  <si>
+    <t>[250]</t>
+  </si>
+  <si>
+    <t>[5, 20]</t>
+  </si>
+  <si>
+    <t>[10, 0.01, 60]</t>
+  </si>
+  <si>
+    <t>[2.5, 1.1]</t>
+  </si>
+  <si>
+    <t>[40, 10, 0.1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[3, 30, 10]</t>
+  </si>
+  <si>
+    <t>[1, 24]</t>
   </si>
   <si>
     <t>价量类</t>
@@ -458,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,34 +657,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +692,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +727,349 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>0.08</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0.03</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>0.04</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>0.06</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/10_Factors/Finish_alpha.xlsx
+++ b/10_Factors/Finish_alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Formula</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>价量类</t>
+  </si>
+  <si>
+    <t>财务类</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -754,7 +757,7 @@
         <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -929,7 +932,7 @@
         <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -964,7 +967,7 @@
         <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -999,7 +1002,7 @@
         <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1034,7 +1037,7 @@
         <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1069,7 +1072,7 @@
         <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
